--- a/mAjustesInventario/bak_ALL3010.xlsx
+++ b/mAjustesInventario/bak_ALL3010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8AE11F-D645-4EA6-A89E-03344176466B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED10BD1-9FA6-498C-BBF2-F099DB0CFB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A3FE419-033F-46C8-9A9A-9157F8F60246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9A1A7F3-71CD-4E2E-937A-4410CB0B7DD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,93 +34,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>0578</t>
-  </si>
-  <si>
-    <t>0566</t>
-  </si>
-  <si>
-    <t>2128</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>7501039122020</t>
-  </si>
-  <si>
-    <t>0577</t>
-  </si>
-  <si>
-    <t>605811000210</t>
-  </si>
-  <si>
-    <t>7501073411609</t>
-  </si>
-  <si>
-    <t>7501295600126</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>7501040083617</t>
-  </si>
-  <si>
-    <t>7501147510443</t>
-  </si>
-  <si>
-    <t>0530</t>
-  </si>
-  <si>
-    <t>0551</t>
-  </si>
-  <si>
-    <t>0500</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>078917167222</t>
-  </si>
-  <si>
-    <t>7501039122716</t>
-  </si>
-  <si>
-    <t>7501054549819</t>
-  </si>
-  <si>
-    <t>7501054900917</t>
-  </si>
-  <si>
-    <t>7501059289239</t>
-  </si>
-  <si>
-    <t>7501071900112</t>
-  </si>
-  <si>
-    <t>7501157605825</t>
-  </si>
-  <si>
-    <t>7501199413778</t>
-  </si>
-  <si>
-    <t>7502226814292</t>
-  </si>
-  <si>
-    <t>7506350613967</t>
-  </si>
-  <si>
-    <t>760412249328</t>
-  </si>
-  <si>
-    <t>0231</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>7501013103168</t>
+  </si>
+  <si>
+    <t>7501019035548</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>7501036010016</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>7501495010107</t>
+  </si>
+  <si>
+    <t>7501578550025</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>7501040080319</t>
+  </si>
+  <si>
+    <t>7501044205411</t>
+  </si>
+  <si>
+    <t>102490</t>
+  </si>
+  <si>
+    <t>7502269960420</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>7501040092350</t>
+  </si>
+  <si>
+    <t>7622300744724</t>
+  </si>
+  <si>
+    <t>8719200450615</t>
+  </si>
+  <si>
+    <t>046500716898</t>
+  </si>
+  <si>
+    <t>7501040092336</t>
+  </si>
+  <si>
+    <t>7501204003505</t>
+  </si>
+  <si>
+    <t>7502233119021</t>
+  </si>
+  <si>
+    <t>7501011351097</t>
+  </si>
+  <si>
+    <t>7501020564198</t>
+  </si>
+  <si>
+    <t>7501037600070</t>
+  </si>
+  <si>
+    <t>7501038410296</t>
+  </si>
+  <si>
+    <t>7501943468504</t>
+  </si>
+  <si>
+    <t>7503005933517</t>
+  </si>
+  <si>
+    <t>75073251</t>
+  </si>
+  <si>
+    <t>7804320637006</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>102976</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>681442800115</t>
+  </si>
+  <si>
+    <t>7500464511812</t>
+  </si>
+  <si>
+    <t>7501032915490</t>
+  </si>
+  <si>
+    <t>7501040017841</t>
+  </si>
+  <si>
+    <t>7501045401201</t>
+  </si>
+  <si>
+    <t>7501047904502</t>
+  </si>
+  <si>
+    <t>7501058757487</t>
+  </si>
+  <si>
+    <t>7501557210223</t>
+  </si>
+  <si>
+    <t>7502233118635</t>
+  </si>
+  <si>
+    <t>7506192506106</t>
+  </si>
+  <si>
+    <t>770446</t>
+  </si>
+  <si>
+    <t>0830</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0581</t>
   </si>
 </sst>
 </file>
@@ -472,8 +535,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD363A69-114D-43B2-9DED-B19F0D9E978F}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D362FB37-F072-472E-8379-3371F39D516E}">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -486,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -598,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -638,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +725,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -670,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +741,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,6 +773,174 @@
         <v>28</v>
       </c>
       <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>2</v>
       </c>
     </row>
